--- a/Docs/Excel/hex and number notations.xlsx
+++ b/Docs/Excel/hex and number notations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_s\A2\OnSiteX\Docs\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Bald Builders\SESA\_A\_UX\OnSiteX\Docs\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="209">
   <si>
     <t>a</t>
   </si>
@@ -979,6 +979,73 @@
   <si>
     <t>mix-blend-mode: luminosity;</t>
   </si>
+  <si>
+    <t>A875C0</t>
+  </si>
+  <si>
+    <t>R,G,B</t>
+  </si>
+  <si>
+    <t>200,0,208</t>
+  </si>
+  <si>
+    <t>168, 117 , 192</t>
+  </si>
+  <si>
+    <t>Med Light pale purple</t>
+  </si>
+  <si>
+    <t>46BC13</t>
+  </si>
+  <si>
+    <t>70, 188 ,19</t>
+  </si>
+  <si>
+    <t>Med warm green</t>
+  </si>
+  <si>
+    <t>51,171,0</t>
+  </si>
+  <si>
+    <t>#5AB8AF</t>
+  </si>
+  <si>
+    <t>Med gray-Blue-Green</t>
+  </si>
+  <si>
+    <r>
+      <t>#E8C49A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Roboto Mono"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <t>#337504</t>
+  </si>
+  <si>
+    <t>#543DC6</t>
+  </si>
+  <si>
+    <t>51,119,4</t>
+  </si>
+  <si>
+    <t>med green-green-yellow</t>
+  </si>
+  <si>
+    <t>light red-red-orange</t>
+  </si>
+  <si>
+    <t>84,61,198</t>
+  </si>
+  <si>
+    <t>med Blue</t>
+  </si>
 </sst>
 </file>
 
@@ -991,7 +1058,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000000000000000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.000000000000000000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1229,8 +1296,25 @@
       <name val="Roboto Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="4"/>
+      <name val="Roboto Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Roboto Mono"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1294,6 +1378,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,7 +1919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2230,10 +2332,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4579,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:AK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8093,12 +8210,12 @@
       </c>
     </row>
     <row r="42" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="T42" s="163" t="s">
+      <c r="T42" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="U42" s="163"/>
-      <c r="V42" s="163"/>
-      <c r="W42" s="163"/>
+      <c r="U42" s="162"/>
+      <c r="V42" s="162"/>
+      <c r="W42" s="162"/>
       <c r="X42" s="161" t="s">
         <v>41</v>
       </c>
@@ -8416,7 +8533,7 @@
       <c r="W57" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="X57" s="162" t="s">
+      <c r="X57" s="163" t="s">
         <v>58</v>
       </c>
       <c r="Y57" s="161"/>
@@ -8445,16 +8562,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:AC42"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AB55:AC55"/>
     <mergeCell ref="X57:Y57"/>
     <mergeCell ref="X58:Y58"/>
     <mergeCell ref="Z43:AA43"/>
@@ -8471,15 +8587,16 @@
     <mergeCell ref="X54:Y54"/>
     <mergeCell ref="X55:Y55"/>
     <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:AC42"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="X49:Y49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8487,18 +8604,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BP18"/>
+  <dimension ref="B1:CG27"/>
   <sheetViews>
-    <sheetView topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BP17" sqref="BP17"/>
+    <sheetView topLeftCell="BV13" workbookViewId="0">
+      <selection activeCell="CD28" sqref="CD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9" style="12"/>
+    <col min="1" max="67" width="9" style="12"/>
+    <col min="68" max="70" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="71" max="74" width="9" style="12"/>
+    <col min="75" max="76" width="5.875" style="12" customWidth="1"/>
+    <col min="77" max="80" width="9" style="12"/>
+    <col min="81" max="81" width="54.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="46.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="29.375" style="12" customWidth="1"/>
+    <col min="84" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="28.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:85" ht="28.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AJ1" s="12">
         <v>1</v>
       </c>
@@ -8565,8 +8690,11 @@
       <c r="BP1" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="2:68" ht="28.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ1" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:85" ht="28.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="13">
         <v>1</v>
       </c>
@@ -8640,8 +8768,11 @@
       <c r="BP2" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ2" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="17">
         <v>2</v>
       </c>
@@ -8730,8 +8861,11 @@
       <c r="BP3" s="12">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ3" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="13">
         <v>3</v>
       </c>
@@ -8820,8 +8954,11 @@
       <c r="BP4" s="12">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="31">
         <v>4</v>
       </c>
@@ -8913,8 +9050,11 @@
       <c r="BP5" s="12">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ5" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="12" t="s">
         <v>62</v>
       </c>
@@ -9006,8 +9146,11 @@
       <c r="BP6" s="12">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ6" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="21">
         <v>6</v>
       </c>
@@ -9096,8 +9239,16 @@
       <c r="BP7" s="12">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ7" s="12">
+        <v>7</v>
+      </c>
+      <c r="BW7" s="165"/>
+      <c r="BX7" s="166"/>
+      <c r="CC7" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C8" s="13">
         <v>7</v>
       </c>
@@ -9189,8 +9340,16 @@
       <c r="BP8" s="12">
         <v>128</v>
       </c>
-    </row>
-    <row r="9" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ8" s="12">
+        <v>8</v>
+      </c>
+      <c r="BW8" s="167"/>
+      <c r="BX8" s="168"/>
+      <c r="CC8" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C9" s="17">
         <v>8</v>
       </c>
@@ -9315,8 +9474,17 @@
       <c r="BP9" s="12">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ9" s="12">
+        <v>9</v>
+      </c>
+      <c r="CC9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="CG9" s="12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C10" s="19">
         <v>9</v>
       </c>
@@ -9444,8 +9612,20 @@
       <c r="BP10" s="12">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ10" s="12">
+        <v>10</v>
+      </c>
+      <c r="BR10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="CC10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="CG10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="12" t="s">
         <v>63</v>
       </c>
@@ -9576,8 +9756,14 @@
       <c r="BP11" s="12">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ11" s="12">
+        <v>11</v>
+      </c>
+      <c r="BR11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C12" s="13">
         <v>11</v>
       </c>
@@ -9669,8 +9855,15 @@
       <c r="BP12" s="12">
         <v>192</v>
       </c>
-    </row>
-    <row r="13" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ12" s="12">
+        <v>12</v>
+      </c>
+      <c r="BR12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="BW12" s="168"/>
+    </row>
+    <row r="13" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C13" s="21">
         <v>12</v>
       </c>
@@ -9765,8 +9958,18 @@
       <c r="BP13" s="12">
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ13" s="12">
+        <v>13</v>
+      </c>
+      <c r="BR13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="BW13" s="168"/>
+      <c r="CC13" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C14" s="13">
         <v>13</v>
       </c>
@@ -9894,8 +10097,14 @@
       <c r="BP14" s="12">
         <v>224</v>
       </c>
-    </row>
-    <row r="15" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ14" s="12">
+        <v>14</v>
+      </c>
+      <c r="BR14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="21">
         <v>14</v>
       </c>
@@ -10017,8 +10226,17 @@
       <c r="BP15" s="12">
         <v>240</v>
       </c>
-    </row>
-    <row r="16" spans="2:68" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ15" s="12">
+        <v>15</v>
+      </c>
+      <c r="BR15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC15" s="164" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="2:85" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -10143,8 +10361,14 @@
       <c r="BP16" s="12">
         <v>256</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BQ16" s="12">
+        <v>16</v>
+      </c>
+      <c r="CC16" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:83" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
@@ -10176,8 +10400,11 @@
       <c r="X17" s="12">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="2:24" ht="28.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="CC17" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:83" ht="28.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="P18" s="12">
         <v>16</v>
       </c>
@@ -10192,6 +10419,84 @@
       </c>
       <c r="T18" s="12">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="CC19" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY21" s="12">
+        <v>32</v>
+      </c>
+      <c r="CC21" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY22" s="12">
+        <v>48</v>
+      </c>
+      <c r="CC22" s="164">
+        <v>90184175</v>
+      </c>
+    </row>
+    <row r="23" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY23" s="12">
+        <v>64</v>
+      </c>
+      <c r="CC23" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY24" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY25" s="12">
+        <v>96</v>
+      </c>
+      <c r="CC25" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="CD25" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE25" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="BY26" s="12">
+        <v>108</v>
+      </c>
+      <c r="CC26" s="164">
+        <v>232194154</v>
+      </c>
+      <c r="CD26" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="CE26" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="2:83" x14ac:dyDescent="0.45">
+      <c r="CC27" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="CD27" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE27" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
